--- a/cambio.xlsx
+++ b/cambio.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Henrique Longuinhos\Desktop\FinInter Trabalho\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mateu\OneDrive\Área de Trabalho\trabalho fin inter\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A71DAC3F-48A5-457C-AEC9-ED20EAE46870}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBC008AD-706E-487D-A69D-FB28A90E758B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
+    <sheet name="Dados1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -958,7 +958,7 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -1251,18 +1251,18 @@
       <selection pane="bottomRight" activeCell="M272" sqref="M272"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="7" max="7" width="10.109375" customWidth="1"/>
+    <col min="7" max="7" width="10.08984375" customWidth="1"/>
     <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="27.21875" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="33.88671875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18.77734375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="20.88671875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="27.1796875" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="33.90625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.81640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20.90625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1306,7 +1306,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -1351,7 +1351,7 @@
         <v>-4.74878543504412E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -1396,7 +1396,7 @@
         <v>0.1238847946975286</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -1441,7 +1441,7 @@
         <v>-9.2222352284080905E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -1486,7 +1486,7 @@
         <v>4.8630737900523899E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -1531,7 +1531,7 @@
         <v>-8.008881343042451E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -1576,7 +1576,7 @@
         <v>-6.1453317050314704E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -1621,7 +1621,7 @@
         <v>-4.4582697282115294E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -1666,7 +1666,7 @@
         <v>5.8591713970225841E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -1711,7 +1711,7 @@
         <v>-5.9469797082943004E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>17</v>
       </c>
@@ -1756,7 +1756,7 @@
         <v>9.2759957593641904E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -1801,7 +1801,7 @@
         <v>-2.35234333815805E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>19</v>
       </c>
@@ -1846,7 +1846,7 @@
         <v>0.1326194941937397</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -1891,7 +1891,7 @@
         <v>-1.6408844167880993E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>21</v>
       </c>
@@ -1936,7 +1936,7 @@
         <v>-4.3356839173273598E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>22</v>
       </c>
@@ -1981,7 +1981,7 @@
         <v>8.823315950031918E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>23</v>
       </c>
@@ -2026,7 +2026,7 @@
         <v>3.2774281453242585E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>24</v>
       </c>
@@ -2071,7 +2071,7 @@
         <v>1.7979807038815292E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>25</v>
       </c>
@@ -2116,7 +2116,7 @@
         <v>-4.4787523656516795E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>26</v>
       </c>
@@ -2161,7 +2161,7 @@
         <v>2.99683801965871E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>27</v>
       </c>
@@ -2206,7 +2206,7 @@
         <v>0.10021487999322411</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>28</v>
       </c>
@@ -2251,7 +2251,7 @@
         <v>6.7056985200668301E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>29</v>
       </c>
@@ -2296,7 +2296,7 @@
         <v>6.8190671209254691E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>30</v>
       </c>
@@ -2341,7 +2341,7 @@
         <v>0.1152910642410496</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>31</v>
       </c>
@@ -2386,7 +2386,7 @@
         <v>5.0927992953646091E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>32</v>
       </c>
@@ -2431,7 +2431,7 @@
         <v>-3.4585482659517094E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>33</v>
       </c>
@@ -2476,7 +2476,7 @@
         <v>-1.6626831206729017E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>34</v>
       </c>
@@ -2521,7 +2521,7 @@
         <v>3.4157637187258505E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>35</v>
       </c>
@@ -2566,7 +2566,7 @@
         <v>-9.7698036898026905E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>36</v>
       </c>
@@ -2611,7 +2611,7 @@
         <v>-1.5276088464873442E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>37</v>
       </c>
@@ -2656,7 +2656,7 @@
         <v>6.4101717955409795E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>38</v>
       </c>
@@ -2701,7 +2701,7 @@
         <v>9.0458952264881293E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>39</v>
       </c>
@@ -2746,7 +2746,7 @@
         <v>1.8592083447630081E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>40</v>
       </c>
@@ -2791,7 +2791,7 @@
         <v>1.001377843471273E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>41</v>
       </c>
@@ -2836,7 +2836,7 @@
         <v>-2.231426954125635E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>42</v>
       </c>
@@ -2881,7 +2881,7 @@
         <v>5.1463494976934601E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>43</v>
       </c>
@@ -2926,7 +2926,7 @@
         <v>1.0047452019793901E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>44</v>
       </c>
@@ -2971,7 +2971,7 @@
         <v>-4.5164937015927706E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>45</v>
       </c>
@@ -3016,7 +3016,7 @@
         <v>0.1366765577139587</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>46</v>
       </c>
@@ -3061,7 +3061,7 @@
         <v>-3.5201768144044597E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>47</v>
       </c>
@@ -3106,7 +3106,7 @@
         <v>-4.6288569367050406E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>48</v>
       </c>
@@ -3151,7 +3151,7 @@
         <v>-1.5327834511726703E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>49</v>
       </c>
@@ -3196,7 +3196,7 @@
         <v>-6.0386621738943679E-3</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>50</v>
       </c>
@@ -3241,7 +3241,7 @@
         <v>3.5951681620137038E-3</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>51</v>
       </c>
@@ -3286,7 +3286,7 @@
         <v>8.8113616839785705E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>52</v>
       </c>
@@ -3331,7 +3331,7 @@
         <v>0.11924004570309152</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>53</v>
       </c>
@@ -3376,7 +3376,7 @@
         <v>-2.6273586353117006E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>54</v>
       </c>
@@ -3421,7 +3421,7 @@
         <v>2.1884631630260394E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>55</v>
       </c>
@@ -3466,7 +3466,7 @@
         <v>4.9174095394658057E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>56</v>
       </c>
@@ -3511,7 +3511,7 @@
         <v>0.12179591366534361</v>
       </c>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>57</v>
       </c>
@@ -3556,7 +3556,7 @@
         <v>5.4767744457242451E-3</v>
       </c>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>58</v>
       </c>
@@ -3601,7 +3601,7 @@
         <v>-2.8112495555895799E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>59</v>
       </c>
@@ -3646,7 +3646,7 @@
         <v>5.1349484144286514E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>60</v>
       </c>
@@ -3691,7 +3691,7 @@
         <v>-6.4053176433447809E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>61</v>
       </c>
@@ -3736,7 +3736,7 @@
         <v>2.6642942766341715E-3</v>
       </c>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>62</v>
       </c>
@@ -3781,7 +3781,7 @@
         <v>7.1054249134345207E-3</v>
       </c>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>63</v>
       </c>
@@ -3826,7 +3826,7 @@
         <v>-4.4060405911549298E-2</v>
       </c>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>64</v>
       </c>
@@ -3871,7 +3871,7 @@
         <v>-1.8571039858958686E-2</v>
       </c>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>65</v>
       </c>
@@ -3916,7 +3916,7 @@
         <v>4.5673889938649695E-2</v>
       </c>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>66</v>
       </c>
@@ -3961,7 +3961,7 @@
         <v>5.1511237415656996E-2</v>
       </c>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>67</v>
       </c>
@@ -4006,7 +4006,7 @@
         <v>4.8006163010394703E-2</v>
       </c>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>68</v>
       </c>
@@ -4051,7 +4051,7 @@
         <v>-1.0285732798580329E-2</v>
       </c>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>69</v>
       </c>
@@ -4096,7 +4096,7 @@
         <v>5.0642442278756999E-3</v>
       </c>
     </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>70</v>
       </c>
@@ -4141,7 +4141,7 @@
         <v>3.3585761620610478E-2</v>
       </c>
     </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>71</v>
       </c>
@@ -4186,7 +4186,7 @@
         <v>2.5522071859402695E-2</v>
       </c>
     </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>72</v>
       </c>
@@ -4231,7 +4231,7 @@
         <v>3.5101558087999613E-2</v>
       </c>
     </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>73</v>
       </c>
@@ -4276,7 +4276,7 @@
         <v>5.8446702439615299E-2</v>
       </c>
     </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>74</v>
       </c>
@@ -4321,7 +4321,7 @@
         <v>2.8125044514322239E-2</v>
       </c>
     </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>75</v>
       </c>
@@ -4366,7 +4366,7 @@
         <v>-4.46606178636735E-3</v>
       </c>
     </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>76</v>
       </c>
@@ -4411,7 +4411,7 @@
         <v>7.0870641606509799E-2</v>
       </c>
     </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>77</v>
       </c>
@@ -4456,7 +4456,7 @@
         <v>6.5432514643395306E-2</v>
       </c>
     </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>78</v>
       </c>
@@ -4501,7 +4501,7 @@
         <v>8.6505101798343975E-3</v>
       </c>
     </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>79</v>
       </c>
@@ -4546,7 +4546,7 @@
         <v>2.2599807487320812E-2</v>
       </c>
     </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>80</v>
       </c>
@@ -4591,7 +4591,7 @@
         <v>-7.6429515988334015E-3</v>
       </c>
     </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>81</v>
       </c>
@@ -4636,7 +4636,7 @@
         <v>0.10197634672710749</v>
       </c>
     </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>82</v>
       </c>
@@ -4681,7 +4681,7 @@
         <v>-3.375198177266929E-2</v>
       </c>
     </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>83</v>
       </c>
@@ -4726,7 +4726,7 @@
         <v>6.56391241747451E-2</v>
       </c>
     </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>84</v>
       </c>
@@ -4771,7 +4771,7 @@
         <v>5.893149823811019E-2</v>
       </c>
     </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>85</v>
       </c>
@@ -4816,7 +4816,7 @@
         <v>-1.838915006340229E-2</v>
       </c>
     </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>86</v>
       </c>
@@ -4861,7 +4861,7 @@
         <v>-7.4923776918090226E-2</v>
       </c>
     </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>87</v>
       </c>
@@ -4906,7 +4906,7 @@
         <v>-7.6464302076372101E-2</v>
       </c>
     </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>88</v>
       </c>
@@ -4951,7 +4951,7 @@
         <v>-1.9467864754238215E-2</v>
       </c>
     </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>89</v>
       </c>
@@ -4996,7 +4996,7 @@
         <v>-7.8541221921413995E-2</v>
       </c>
     </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>90</v>
       </c>
@@ -5041,7 +5041,7 @@
         <v>5.7114714183290803E-2</v>
       </c>
     </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>91</v>
       </c>
@@ -5086,7 +5086,7 @@
         <v>1.825026163263211E-2</v>
       </c>
     </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>92</v>
       </c>
@@ -5131,7 +5131,7 @@
         <v>0.13227742522205871</v>
       </c>
     </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>93</v>
       </c>
@@ -5176,7 +5176,7 @@
         <v>8.1496330297377295E-2</v>
       </c>
     </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>94</v>
       </c>
@@ -5221,7 +5221,7 @@
         <v>-1.3570794022613089E-2</v>
       </c>
     </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>95</v>
       </c>
@@ -5266,7 +5266,7 @@
         <v>6.1566374232391322E-2</v>
       </c>
     </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>96</v>
       </c>
@@ -5311,7 +5311,7 @@
         <v>7.1852133012258998E-2</v>
       </c>
     </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>97</v>
       </c>
@@ -5356,7 +5356,7 @@
         <v>-3.2763128706739947E-2</v>
       </c>
     </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>98</v>
       </c>
@@ -5401,7 +5401,7 @@
         <v>-1.0006179679763194E-2</v>
       </c>
     </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>99</v>
       </c>
@@ -5446,7 +5446,7 @@
         <v>-2.1038820662791016E-3</v>
       </c>
     </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>100</v>
       </c>
@@ -5491,7 +5491,7 @@
         <v>5.3307354736720686E-2</v>
       </c>
     </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>101</v>
       </c>
@@ -5536,7 +5536,7 @@
         <v>2.020516902094735E-2</v>
       </c>
     </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>102</v>
       </c>
@@ -5581,7 +5581,7 @@
         <v>3.1988614977487298E-2</v>
       </c>
     </row>
-    <row r="97" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>103</v>
       </c>
@@ -5626,7 +5626,7 @@
         <v>5.2555989136062985E-3</v>
       </c>
     </row>
-    <row r="98" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>104</v>
       </c>
@@ -5671,7 +5671,7 @@
         <v>-9.4831800748560041E-3</v>
       </c>
     </row>
-    <row r="99" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>105</v>
       </c>
@@ -5716,7 +5716,7 @@
         <v>-1.1675388379671404E-2</v>
       </c>
     </row>
-    <row r="100" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>106</v>
       </c>
@@ -5761,7 +5761,7 @@
         <v>-6.276037080468061E-4</v>
       </c>
     </row>
-    <row r="101" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>107</v>
       </c>
@@ -5806,7 +5806,7 @@
         <v>-5.5140703667688098E-2</v>
       </c>
     </row>
-    <row r="102" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>108</v>
       </c>
@@ -5851,7 +5851,7 @@
         <v>1.5590102509982398E-2</v>
       </c>
     </row>
-    <row r="103" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>109</v>
       </c>
@@ -5896,7 +5896,7 @@
         <v>2.0401659445674396E-2</v>
       </c>
     </row>
-    <row r="104" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>110</v>
       </c>
@@ -5941,7 +5941,7 @@
         <v>3.9198939387496107E-2</v>
       </c>
     </row>
-    <row r="105" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>111</v>
       </c>
@@ -5986,7 +5986,7 @@
         <v>1.2347730314838594E-2</v>
       </c>
     </row>
-    <row r="106" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>112</v>
       </c>
@@ -6031,7 +6031,7 @@
         <v>-2.1790273065882396E-2</v>
       </c>
     </row>
-    <row r="107" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>113</v>
       </c>
@@ -6076,7 +6076,7 @@
         <v>-1.8942433990263994E-2</v>
       </c>
     </row>
-    <row r="108" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>114</v>
       </c>
@@ -6121,7 +6121,7 @@
         <v>-3.9708791079466808E-2</v>
       </c>
     </row>
-    <row r="109" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>115</v>
       </c>
@@ -6166,7 +6166,7 @@
         <v>-4.1670904067792794E-2</v>
       </c>
     </row>
-    <row r="110" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>116</v>
       </c>
@@ -6211,7 +6211,7 @@
         <v>-6.2039773170702701E-2</v>
       </c>
     </row>
-    <row r="111" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>117</v>
       </c>
@@ -6256,7 +6256,7 @@
         <v>-1.9817293105668796E-2</v>
       </c>
     </row>
-    <row r="112" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>118</v>
       </c>
@@ -6301,7 +6301,7 @@
         <v>1.891316302244557E-2</v>
       </c>
     </row>
-    <row r="113" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>119</v>
       </c>
@@ -6346,7 +6346,7 @@
         <v>-6.4276769880117296E-2</v>
       </c>
     </row>
-    <row r="114" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>120</v>
       </c>
@@ -6391,7 +6391,7 @@
         <v>-9.370380525630698E-3</v>
       </c>
     </row>
-    <row r="115" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>121</v>
       </c>
@@ -6436,7 +6436,7 @@
         <v>-1.6043284885253094E-2</v>
       </c>
     </row>
-    <row r="116" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>122</v>
       </c>
@@ -6481,7 +6481,7 @@
         <v>-3.5899884912135596E-2</v>
       </c>
     </row>
-    <row r="117" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>123</v>
       </c>
@@ -6526,7 +6526,7 @@
         <v>1.7208677806287292E-2</v>
       </c>
     </row>
-    <row r="118" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
         <v>124</v>
       </c>
@@ -6571,7 +6571,7 @@
         <v>-2.0595983466438067E-3</v>
       </c>
     </row>
-    <row r="119" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
         <v>125</v>
       </c>
@@ -6616,7 +6616,7 @@
         <v>7.2168158371589963E-3</v>
       </c>
     </row>
-    <row r="120" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
         <v>126</v>
       </c>
@@ -6661,7 +6661,7 @@
         <v>-2.0029227910941669E-2</v>
       </c>
     </row>
-    <row r="121" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
         <v>127</v>
       </c>
@@ -6706,7 +6706,7 @@
         <v>-1.0662265433919779E-2</v>
       </c>
     </row>
-    <row r="122" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
         <v>128</v>
       </c>
@@ -6751,7 +6751,7 @@
         <v>6.7747737333573296E-2</v>
       </c>
     </row>
-    <row r="123" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
         <v>129</v>
       </c>
@@ -6796,7 +6796,7 @@
         <v>2.8411674299566939E-3</v>
       </c>
     </row>
-    <row r="124" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
         <v>130</v>
       </c>
@@ -6841,7 +6841,7 @@
         <v>-5.1093624765939399E-2</v>
       </c>
     </row>
-    <row r="125" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
         <v>131</v>
       </c>
@@ -6886,7 +6886,7 @@
         <v>-3.421476773916151E-2</v>
       </c>
     </row>
-    <row r="126" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
         <v>132</v>
       </c>
@@ -6931,7 +6931,7 @@
         <v>-5.5914397157879298E-2</v>
       </c>
     </row>
-    <row r="127" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
         <v>133</v>
       </c>
@@ -6976,7 +6976,7 @@
         <v>-4.2046566076957691E-2</v>
       </c>
     </row>
-    <row r="128" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
         <v>134</v>
       </c>
@@ -7021,7 +7021,7 @@
         <v>1.9455067706079698E-2</v>
       </c>
     </row>
-    <row r="129" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
         <v>135</v>
       </c>
@@ -7066,7 +7066,7 @@
         <v>-2.5656909567815002E-3</v>
       </c>
     </row>
-    <row r="130" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
         <v>136</v>
       </c>
@@ -7111,7 +7111,7 @@
         <v>1.2812519040918496E-2</v>
       </c>
     </row>
-    <row r="131" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
         <v>137</v>
       </c>
@@ -7156,7 +7156,7 @@
         <v>-1.5823352136672204E-2</v>
       </c>
     </row>
-    <row r="132" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
         <v>138</v>
       </c>
@@ -7201,7 +7201,7 @@
         <v>4.2718769567182697E-3</v>
       </c>
     </row>
-    <row r="133" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
         <v>139</v>
       </c>
@@ -7246,7 +7246,7 @@
         <v>5.3439427455263776E-2</v>
       </c>
     </row>
-    <row r="134" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
         <v>140</v>
       </c>
@@ -7291,7 +7291,7 @@
         <v>-6.9963415363237691E-2</v>
       </c>
     </row>
-    <row r="135" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
         <v>141</v>
       </c>
@@ -7336,7 +7336,7 @@
         <v>-5.0167619291099301E-2</v>
       </c>
     </row>
-    <row r="136" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
         <v>142</v>
       </c>
@@ -7381,7 +7381,7 @@
         <v>-5.4657800584628498E-2</v>
       </c>
     </row>
-    <row r="137" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
         <v>143</v>
       </c>
@@ -7426,7 +7426,7 @@
         <v>-2.5924256064783751E-2</v>
       </c>
     </row>
-    <row r="138" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
         <v>144</v>
       </c>
@@ -7471,7 +7471,7 @@
         <v>-6.3769309579460795E-2</v>
       </c>
     </row>
-    <row r="139" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
         <v>145</v>
       </c>
@@ -7516,7 +7516,7 @@
         <v>-9.8049704923480294E-2</v>
       </c>
     </row>
-    <row r="140" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
         <v>146</v>
       </c>
@@ -7561,7 +7561,7 @@
         <v>-3.3080313982172302E-2</v>
       </c>
     </row>
-    <row r="141" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
         <v>147</v>
       </c>
@@ -7606,7 +7606,7 @@
         <v>6.8140713937976799E-2</v>
       </c>
     </row>
-    <row r="142" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
         <v>148</v>
       </c>
@@ -7651,7 +7651,7 @@
         <v>1.6771164199891702E-2</v>
       </c>
     </row>
-    <row r="143" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
         <v>149</v>
       </c>
@@ -7696,7 +7696,7 @@
         <v>-7.9541172353201003E-3</v>
       </c>
     </row>
-    <row r="144" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
         <v>150</v>
       </c>
@@ -7741,7 +7741,7 @@
         <v>-6.0739658638465602E-2</v>
       </c>
     </row>
-    <row r="145" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
         <v>151</v>
       </c>
@@ -7786,7 +7786,7 @@
         <v>-4.2143295232622294E-2</v>
       </c>
     </row>
-    <row r="146" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
         <v>152</v>
       </c>
@@ -7831,7 +7831,7 @@
         <v>-3.9516935167194601E-2</v>
       </c>
     </row>
-    <row r="147" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
         <v>153</v>
       </c>
@@ -7876,7 +7876,7 @@
         <v>-5.4550062782812693E-2</v>
       </c>
     </row>
-    <row r="148" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
         <v>154</v>
       </c>
@@ -7921,7 +7921,7 @@
         <v>6.3577841291345152E-2</v>
       </c>
     </row>
-    <row r="149" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
         <v>155</v>
       </c>
@@ -7966,7 +7966,7 @@
         <v>1.7832482924853878E-2</v>
       </c>
     </row>
-    <row r="150" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
         <v>156</v>
       </c>
@@ -8011,7 +8011,7 @@
         <v>-2.853452579753293E-2</v>
       </c>
     </row>
-    <row r="151" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
         <v>157</v>
       </c>
@@ -8056,7 +8056,7 @@
         <v>1.8586964261093998E-2</v>
       </c>
     </row>
-    <row r="152" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
         <v>158</v>
       </c>
@@ -8101,7 +8101,7 @@
         <v>6.5130779727558596E-2</v>
       </c>
     </row>
-    <row r="153" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
         <v>159</v>
       </c>
@@ -8146,7 +8146,7 @@
         <v>6.0123300438093899E-2</v>
       </c>
     </row>
-    <row r="154" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
         <v>160</v>
       </c>
@@ -8191,7 +8191,7 @@
         <v>-0.1015086139234293</v>
       </c>
     </row>
-    <row r="155" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
         <v>161</v>
       </c>
@@ -8236,7 +8236,7 @@
         <v>-1.3733640277878002E-2</v>
       </c>
     </row>
-    <row r="156" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
         <v>162</v>
       </c>
@@ -8281,7 +8281,7 @@
         <v>-2.2785973269230091E-2</v>
       </c>
     </row>
-    <row r="157" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
         <v>163</v>
       </c>
@@ -8326,7 +8326,7 @@
         <v>-8.2000346128830656E-2</v>
       </c>
     </row>
-    <row r="158" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
         <v>164</v>
       </c>
@@ -8371,7 +8371,7 @@
         <v>-3.0943647304693799E-2</v>
       </c>
     </row>
-    <row r="159" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
         <v>165</v>
       </c>
@@ -8416,7 +8416,7 @@
         <v>4.4778674341310401E-2</v>
       </c>
     </row>
-    <row r="160" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
         <v>166</v>
       </c>
@@ -8461,7 +8461,7 @@
         <v>9.0060175782866302E-3</v>
       </c>
     </row>
-    <row r="161" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
         <v>167</v>
       </c>
@@ -8506,7 +8506,7 @@
         <v>9.0776303052812965E-2</v>
       </c>
     </row>
-    <row r="162" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
         <v>168</v>
       </c>
@@ -8551,7 +8551,7 @@
         <v>-7.2181592312733411E-2</v>
       </c>
     </row>
-    <row r="163" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
         <v>169</v>
       </c>
@@ -8596,7 +8596,7 @@
         <v>2.7083625402476812E-2</v>
       </c>
     </row>
-    <row r="164" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
         <v>170</v>
       </c>
@@ -8641,7 +8641,7 @@
         <v>-6.1488572402287896E-2</v>
       </c>
     </row>
-    <row r="165" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
         <v>171</v>
       </c>
@@ -8686,7 +8686,7 @@
         <v>-2.0767029346286187E-2</v>
       </c>
     </row>
-    <row r="166" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
         <v>172</v>
       </c>
@@ -8731,7 +8731,7 @@
         <v>-7.1437346544699007E-3</v>
       </c>
     </row>
-    <row r="167" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
         <v>173</v>
       </c>
@@ -8776,7 +8776,7 @@
         <v>-6.5020405780113394E-2</v>
       </c>
     </row>
-    <row r="168" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
         <v>174</v>
       </c>
@@ -8821,7 +8821,7 @@
         <v>-1.6828552652999852E-2</v>
       </c>
     </row>
-    <row r="169" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
         <v>175</v>
       </c>
@@ -8866,7 +8866,7 @@
         <v>-2.1720677790762699E-2</v>
       </c>
     </row>
-    <row r="170" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
         <v>176</v>
       </c>
@@ -8911,7 +8911,7 @@
         <v>-1.7179863011992397E-2</v>
       </c>
     </row>
-    <row r="171" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
         <v>177</v>
       </c>
@@ -8956,7 +8956,7 @@
         <v>6.3231644347624308E-2</v>
       </c>
     </row>
-    <row r="172" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
         <v>178</v>
       </c>
@@ -9001,7 +9001,7 @@
         <v>0.10370694536490431</v>
       </c>
     </row>
-    <row r="173" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
         <v>179</v>
       </c>
@@ -9046,7 +9046,7 @@
         <v>7.4318281998679833E-2</v>
       </c>
     </row>
-    <row r="174" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
         <v>180</v>
       </c>
@@ -9091,7 +9091,7 @@
         <v>-0.11622371462608189</v>
       </c>
     </row>
-    <row r="175" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
         <v>181</v>
       </c>
@@ -9136,7 +9136,7 @@
         <v>6.2125582381163433E-2</v>
       </c>
     </row>
-    <row r="176" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
         <v>182</v>
       </c>
@@ -9181,7 +9181,7 @@
         <v>7.6601190735897301E-2</v>
       </c>
     </row>
-    <row r="177" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
         <v>183</v>
       </c>
@@ -9226,7 +9226,7 @@
         <v>1.1569944307161659E-2</v>
       </c>
     </row>
-    <row r="178" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
         <v>184</v>
       </c>
@@ -9271,7 +9271,7 @@
         <v>9.2803406477895891E-3</v>
       </c>
     </row>
-    <row r="179" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
         <v>185</v>
       </c>
@@ -9316,7 +9316,7 @@
         <v>0.13176592702151169</v>
       </c>
     </row>
-    <row r="180" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
         <v>186</v>
       </c>
@@ -9361,7 +9361,7 @@
         <v>-8.0658175359284101E-2</v>
       </c>
     </row>
-    <row r="181" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
         <v>187</v>
       </c>
@@ -9406,7 +9406,7 @@
         <v>-4.5320802211801202E-2</v>
       </c>
     </row>
-    <row r="182" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
         <v>188</v>
       </c>
@@ -9451,7 +9451,7 @@
         <v>5.5886438901848301E-2</v>
       </c>
     </row>
-    <row r="183" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
         <v>189</v>
       </c>
@@ -9496,7 +9496,7 @@
         <v>-6.396348662414994E-3</v>
       </c>
     </row>
-    <row r="184" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
         <v>190</v>
       </c>
@@ -9541,7 +9541,7 @@
         <v>-2.4782541400338438E-2</v>
       </c>
     </row>
-    <row r="185" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
         <v>191</v>
       </c>
@@ -9586,7 +9586,7 @@
         <v>-2.642338922646429E-3</v>
       </c>
     </row>
-    <row r="186" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
         <v>192</v>
       </c>
@@ -9631,7 +9631,7 @@
         <v>-5.2737180915048198E-2</v>
       </c>
     </row>
-    <row r="187" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
         <v>193</v>
       </c>
@@ -9676,7 +9676,7 @@
         <v>-1.8166078157251199E-3</v>
       </c>
     </row>
-    <row r="188" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
         <v>194</v>
       </c>
@@ -9721,7 +9721,7 @@
         <v>2.8680134680635103E-2</v>
       </c>
     </row>
-    <row r="189" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
         <v>195</v>
       </c>
@@ -9766,7 +9766,7 @@
         <v>7.4013506540986804E-2</v>
       </c>
     </row>
-    <row r="190" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
         <v>196</v>
       </c>
@@ -9811,7 +9811,7 @@
         <v>2.9514998548570502E-2</v>
       </c>
     </row>
-    <row r="191" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
         <v>197</v>
       </c>
@@ -9856,7 +9856,7 @@
         <v>-2.1987925025339382E-2</v>
       </c>
     </row>
-    <row r="192" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
         <v>198</v>
       </c>
@@ -9901,7 +9901,7 @@
         <v>-5.95446818691584E-2</v>
       </c>
     </row>
-    <row r="193" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
         <v>199</v>
       </c>
@@ -9946,7 +9946,7 @@
         <v>5.1749369320651176E-2</v>
       </c>
     </row>
-    <row r="194" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
         <v>200</v>
       </c>
@@ -9991,7 +9991,7 @@
         <v>5.5206024179907005E-2</v>
       </c>
     </row>
-    <row r="195" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
         <v>201</v>
       </c>
@@ -10036,7 +10036,7 @@
         <v>4.4140779714964939E-2</v>
       </c>
     </row>
-    <row r="196" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
         <v>202</v>
       </c>
@@ -10081,7 +10081,7 @@
         <v>2.7033338022560045E-2</v>
       </c>
     </row>
-    <row r="197" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
         <v>203</v>
       </c>
@@ -10126,7 +10126,7 @@
         <v>6.0649587650398688E-3</v>
       </c>
     </row>
-    <row r="198" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
         <v>204</v>
       </c>
@@ -10171,7 +10171,7 @@
         <v>-0.13032357451184159</v>
       </c>
     </row>
-    <row r="199" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
         <v>205</v>
       </c>
@@ -10216,7 +10216,7 @@
         <v>-5.6840642943476759E-2</v>
       </c>
     </row>
-    <row r="200" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A200" t="s">
         <v>206</v>
       </c>
@@ -10261,7 +10261,7 @@
         <v>5.2733623365688695E-2</v>
       </c>
     </row>
-    <row r="201" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A201" t="s">
         <v>207</v>
       </c>
@@ -10306,7 +10306,7 @@
         <v>-6.2362059896367998E-2</v>
       </c>
     </row>
-    <row r="202" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A202" t="s">
         <v>208</v>
       </c>
@@ -10351,7 +10351,7 @@
         <v>3.0460046345035668E-2</v>
       </c>
     </row>
-    <row r="203" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A203" t="s">
         <v>209</v>
       </c>
@@ -10396,7 +10396,7 @@
         <v>0.17125256956241158</v>
       </c>
     </row>
-    <row r="204" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A204" t="s">
         <v>210</v>
       </c>
@@ -10441,7 +10441,7 @@
         <v>5.9384097978029994E-3</v>
       </c>
     </row>
-    <row r="205" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A205" t="s">
         <v>211</v>
       </c>
@@ -10486,7 +10486,7 @@
         <v>7.3715721188502989E-2</v>
       </c>
     </row>
-    <row r="206" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A206" t="s">
         <v>212</v>
       </c>
@@ -10531,7 +10531,7 @@
         <v>2.9480909904635491E-2</v>
       </c>
     </row>
-    <row r="207" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A207" t="s">
         <v>213</v>
       </c>
@@ -10576,7 +10576,7 @@
         <v>-4.8307305201319997E-2</v>
       </c>
     </row>
-    <row r="208" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A208" t="s">
         <v>214</v>
       </c>
@@ -10621,7 +10621,7 @@
         <v>-1.9700167757476891E-2</v>
       </c>
     </row>
-    <row r="209" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A209" t="s">
         <v>215</v>
       </c>
@@ -10666,7 +10666,7 @@
         <v>-2.9474853366943339E-2</v>
       </c>
     </row>
-    <row r="210" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A210" t="s">
         <v>216</v>
       </c>
@@ -10711,7 +10711,7 @@
         <v>7.2803147383234221E-2</v>
       </c>
     </row>
-    <row r="211" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A211" t="s">
         <v>217</v>
       </c>
@@ -10756,7 +10756,7 @@
         <v>-2.8355584501967596E-2</v>
       </c>
     </row>
-    <row r="212" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A212" t="s">
         <v>218</v>
       </c>
@@ -10801,7 +10801,7 @@
         <v>-4.7592252134191822E-3</v>
       </c>
     </row>
-    <row r="213" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A213" t="s">
         <v>219</v>
       </c>
@@ -10846,7 +10846,7 @@
         <v>1.14372934215453E-2</v>
       </c>
     </row>
-    <row r="214" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A214" t="s">
         <v>220</v>
       </c>
@@ -10891,7 +10891,7 @@
         <v>1.8521135417804101E-2</v>
       </c>
     </row>
-    <row r="215" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A215" t="s">
         <v>221</v>
       </c>
@@ -10936,7 +10936,7 @@
         <v>3.1898899236668006E-3</v>
       </c>
     </row>
-    <row r="216" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A216" t="s">
         <v>222</v>
       </c>
@@ -10981,7 +10981,7 @@
         <v>-2.4593684718165282E-2</v>
       </c>
     </row>
-    <row r="217" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A217" t="s">
         <v>223</v>
       </c>
@@ -11026,7 +11026,7 @@
         <v>3.9892045015897999E-2</v>
       </c>
     </row>
-    <row r="218" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A218" t="s">
         <v>224</v>
       </c>
@@ -11071,7 +11071,7 @@
         <v>-1.4668013939032229E-2</v>
       </c>
     </row>
-    <row r="219" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A219" t="s">
         <v>225</v>
       </c>
@@ -11116,7 +11116,7 @@
         <v>-1.8278770560879731E-4</v>
       </c>
     </row>
-    <row r="220" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A220" t="s">
         <v>226</v>
       </c>
@@ -11161,7 +11161,7 @@
         <v>-0.17392314472442905</v>
       </c>
     </row>
-    <row r="221" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A221" t="s">
         <v>227</v>
       </c>
@@ -11206,7 +11206,7 @@
         <v>-2.4321999734817995E-2</v>
       </c>
     </row>
-    <row r="222" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A222" t="s">
         <v>228</v>
       </c>
@@ -11251,7 +11251,7 @@
         <v>4.0387100759910109E-2</v>
       </c>
     </row>
-    <row r="223" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A223" t="s">
         <v>229</v>
       </c>
@@ -11296,7 +11296,7 @@
         <v>6.9174541871652798E-2</v>
       </c>
     </row>
-    <row r="224" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A224" t="s">
         <v>230</v>
       </c>
@@ -11341,7 +11341,7 @@
         <v>2.7546065202645999E-2</v>
       </c>
     </row>
-    <row r="225" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A225" t="s">
         <v>231</v>
       </c>
@@ -11386,7 +11386,7 @@
         <v>-0.1044909047739313</v>
       </c>
     </row>
-    <row r="226" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A226" t="s">
         <v>232</v>
       </c>
@@ -11431,7 +11431,7 @@
         <v>-8.7324201247702959E-3</v>
       </c>
     </row>
-    <row r="227" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A227" t="s">
         <v>233</v>
       </c>
@@ -11476,7 +11476,7 @@
         <v>2.0784604217327154E-2</v>
       </c>
     </row>
-    <row r="228" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A228" t="s">
         <v>234</v>
       </c>
@@ -11521,7 +11521,7 @@
         <v>5.1479468951467003E-2</v>
       </c>
     </row>
-    <row r="229" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A229" t="s">
         <v>235</v>
       </c>
@@ -11566,7 +11566,7 @@
         <v>5.5850162336910099E-2</v>
       </c>
     </row>
-    <row r="230" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A230" t="s">
         <v>236</v>
       </c>
@@ -11611,7 +11611,7 @@
         <v>-2.2049553724213002E-2</v>
       </c>
     </row>
-    <row r="231" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A231" t="s">
         <v>237</v>
       </c>
@@ -11656,7 +11656,7 @@
         <v>-6.9824801516608706E-2</v>
       </c>
     </row>
-    <row r="232" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A232" t="s">
         <v>238</v>
       </c>
@@ -11701,7 +11701,7 @@
         <v>1.7528362925808796E-2</v>
       </c>
     </row>
-    <row r="233" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A233" t="s">
         <v>239</v>
       </c>
@@ -11746,7 +11746,7 @@
         <v>-3.3048030279932999E-2</v>
       </c>
     </row>
-    <row r="234" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A234" t="s">
         <v>240</v>
       </c>
@@ -11791,7 +11791,7 @@
         <v>5.6097970189530513E-2</v>
       </c>
     </row>
-    <row r="235" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A235" t="s">
         <v>241</v>
       </c>
@@ -11836,7 +11836,7 @@
         <v>-1.757075266883705E-2</v>
       </c>
     </row>
-    <row r="236" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A236" t="s">
         <v>242</v>
       </c>
@@ -11881,7 +11881,7 @@
         <v>-6.2188356777217998E-2</v>
       </c>
     </row>
-    <row r="237" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A237" t="s">
         <v>243</v>
       </c>
@@ -11926,7 +11926,7 @@
         <v>-5.3782032847571604E-2</v>
       </c>
     </row>
-    <row r="238" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A238" t="s">
         <v>244</v>
       </c>
@@ -11971,7 +11971,7 @@
         <v>-1.8113857997646698E-2</v>
       </c>
     </row>
-    <row r="239" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A239" t="s">
         <v>245</v>
       </c>
@@ -12016,7 +12016,7 @@
         <v>-0.13652897602622441</v>
       </c>
     </row>
-    <row r="240" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A240" t="s">
         <v>246</v>
       </c>
@@ -12061,7 +12061,7 @@
         <v>-6.9837313979749793E-3</v>
       </c>
     </row>
-    <row r="241" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A241" t="s">
         <v>247</v>
       </c>
@@ -12106,7 +12106,7 @@
         <v>-1.5089638680095E-2</v>
       </c>
     </row>
-    <row r="242" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A242" t="s">
         <v>248</v>
       </c>
@@ -12151,7 +12151,7 @@
         <v>0.12242877131916741</v>
       </c>
     </row>
-    <row r="243" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A243" t="s">
         <v>249</v>
       </c>
@@ -12196,7 +12196,7 @@
         <v>4.0263335576909282E-2</v>
       </c>
     </row>
-    <row r="244" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A244" t="s">
         <v>250</v>
       </c>
@@ -12242,7 +12242,7 @@
         <v>2.4833622913315305E-2</v>
       </c>
     </row>
-    <row r="245" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A245" t="s">
         <v>251</v>
       </c>
@@ -12287,7 +12287,7 @@
         <v>-1.3068025219119081E-2</v>
       </c>
     </row>
-    <row r="246" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A246" t="s">
         <v>252</v>
       </c>
@@ -12332,7 +12332,7 @@
         <v>3.2153262037119344E-2</v>
       </c>
     </row>
-    <row r="247" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A247" t="s">
         <v>253</v>
       </c>
@@ -12377,7 +12377,7 @@
         <v>-3.1110870482655484E-2</v>
       </c>
     </row>
-    <row r="248" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A248" t="s">
         <v>254</v>
       </c>
@@ -12422,7 +12422,7 @@
         <v>-4.4202442828001703E-2</v>
       </c>
     </row>
-    <row r="249" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A249" t="s">
         <v>255</v>
       </c>
@@ -12467,7 +12467,7 @@
         <v>0.1040708367811219</v>
       </c>
     </row>
-    <row r="250" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A250" t="s">
         <v>256</v>
       </c>
@@ -12512,7 +12512,7 @@
         <v>9.80866966512874E-2</v>
       </c>
     </row>
-    <row r="251" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A251" t="s">
         <v>257</v>
       </c>
@@ -12557,7 +12557,7 @@
         <v>-2.5331590657803091E-2</v>
       </c>
     </row>
-    <row r="252" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A252" t="s">
         <v>258</v>
       </c>
@@ -12602,7 +12602,7 @@
         <v>-8.4355616067899999E-2</v>
       </c>
     </row>
-    <row r="253" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A253" t="s">
         <v>259</v>
       </c>
@@ -12647,7 +12647,7 @@
         <v>3.4511471159765592E-2</v>
       </c>
     </row>
-    <row r="254" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A254" t="s">
         <v>260</v>
       </c>
@@ -12692,7 +12692,7 @@
         <v>-2.8074054138081707E-2</v>
       </c>
     </row>
-    <row r="255" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A255" t="s">
         <v>261</v>
       </c>
@@ -12737,7 +12737,7 @@
         <v>-4.8810958350483498E-2</v>
       </c>
     </row>
-    <row r="256" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A256" t="s">
         <v>262</v>
       </c>
@@ -12782,7 +12782,7 @@
         <v>-6.4115179947387302E-2</v>
       </c>
     </row>
-    <row r="257" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A257" t="s">
         <v>263</v>
       </c>
@@ -12827,7 +12827,7 @@
         <v>1.0381213117225603E-2</v>
       </c>
     </row>
-    <row r="258" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A258" t="s">
         <v>264</v>
       </c>
@@ -12872,7 +12872,7 @@
         <v>3.489704894743647E-2</v>
       </c>
     </row>
-    <row r="259" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A259" t="s">
         <v>265</v>
       </c>
@@ -12913,11 +12913,11 @@
         <v>6.47289827345887E-2</v>
       </c>
       <c r="N259" s="3">
-        <f t="shared" ref="N259:N272" si="4">L259-M259</f>
+        <f t="shared" ref="N259:N271" si="4">L259-M259</f>
         <v>2.5287389618334294E-2</v>
       </c>
     </row>
-    <row r="260" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A260" t="s">
         <v>266</v>
       </c>
@@ -12962,7 +12962,7 @@
         <v>1.514855550058803E-3</v>
       </c>
     </row>
-    <row r="261" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A261" t="s">
         <v>267</v>
       </c>
@@ -13007,7 +13007,7 @@
         <v>-3.31367441465866E-2</v>
       </c>
     </row>
-    <row r="262" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A262" t="s">
         <v>268</v>
       </c>
@@ -13052,7 +13052,7 @@
         <v>5.5832519425972421E-2</v>
       </c>
     </row>
-    <row r="263" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A263" t="s">
         <v>269</v>
       </c>
@@ -13097,7 +13097,7 @@
         <v>-7.3722735890910003E-3</v>
       </c>
     </row>
-    <row r="264" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A264" t="s">
         <v>270</v>
       </c>
@@ -13142,7 +13142,7 @@
         <v>3.6214535125659281E-2</v>
       </c>
     </row>
-    <row r="265" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A265" t="s">
         <v>271</v>
       </c>
@@ -13187,7 +13187,7 @@
         <v>9.5997524113513033E-3</v>
       </c>
     </row>
-    <row r="266" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A266" t="s">
         <v>272</v>
       </c>
@@ -13232,7 +13232,7 @@
         <v>-6.3836169356469505E-2</v>
       </c>
     </row>
-    <row r="267" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A267" t="s">
         <v>273</v>
       </c>
@@ -13277,7 +13277,7 @@
         <v>-4.1797701499302682E-2</v>
       </c>
     </row>
-    <row r="268" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A268" t="s">
         <v>274</v>
       </c>
@@ -13322,7 +13322,7 @@
         <v>-3.810328135033357E-2</v>
       </c>
     </row>
-    <row r="269" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A269" t="s">
         <v>275</v>
       </c>
@@ -13367,7 +13367,7 @@
         <v>2.4583472215868103E-2</v>
       </c>
     </row>
-    <row r="270" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A270" t="s">
         <v>276</v>
       </c>
@@ -13412,7 +13412,7 @@
         <v>-7.8404502145785204E-2</v>
       </c>
     </row>
-    <row r="271" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A271" t="s">
         <v>277</v>
       </c>
@@ -13457,7 +13457,7 @@
         <v>-1.9859242259466503E-2</v>
       </c>
     </row>
-    <row r="272" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:14" x14ac:dyDescent="0.35">
       <c r="M272" s="4"/>
       <c r="N272" s="3"/>
     </row>
@@ -13468,6 +13468,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <TaxCatchAll xmlns="b07b504d-408c-4693-a00c-a5866a996903" xsi:nil="true"/>
@@ -13476,15 +13485,6 @@
     </lcf76f155ced4ddcb4097134ff3c332f>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -13683,20 +13683,20 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{94C53F62-20DE-4F19-9BFC-1D809FAD9E82}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{017F3DA1-EEF6-4D7E-B472-3C76F9BAD764}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="b07b504d-408c-4693-a00c-a5866a996903"/>
     <ds:schemaRef ds:uri="0c4d9c43-540f-462a-b0f5-105f98df9930"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{94C53F62-20DE-4F19-9BFC-1D809FAD9E82}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
